--- a/data/trans_camb/P2A_enfcro_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-6.402433184069977</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-19.28118891405757</v>
+        <v>-19.28118891405756</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.046722439152048</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.35340620324807</v>
+        <v>-3.215321509456144</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.84155479933969</v>
+        <v>-1.178470760596136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.90700023728222</v>
+        <v>-15.3748836805681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.441119069537318</v>
+        <v>-4.435010686663528</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.33987561731057</v>
+        <v>-10.57871970604645</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-23.83518351429287</v>
+        <v>-24.26241219194713</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.151335745712676</v>
+        <v>-4.264634490461958</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.726795352469471</v>
+        <v>-6.468667159677775</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-20.12270074860862</v>
+        <v>-19.60188919912709</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.53648681711444</v>
+        <v>7.21983373232543</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.614682119471254</v>
+        <v>8.261847795269098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.911386353546077</v>
+        <v>-2.449803584159523</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.685363892873827</v>
+        <v>3.824444424178597</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.959951231943303</v>
+        <v>-2.465934973516266</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-14.38781277986404</v>
+        <v>-14.52541524029818</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.432439080166042</v>
+        <v>2.658391440746697</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.05491297777611746</v>
+        <v>0.02957218534154116</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-12.48243088990004</v>
+        <v>-11.81650549803884</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.09120269156921125</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2746606290233278</v>
+        <v>-0.2746606290233277</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.01679781818752057</v>
@@ -769,7 +769,7 @@
         <v>-0.05341150018440293</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2586499879266193</v>
+        <v>-0.2586499879266191</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06327330705340285</v>
+        <v>-0.05944626661314338</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03422302829899517</v>
+        <v>-0.0227344854223331</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2996421451446859</v>
+        <v>-0.2971166007710013</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06166431923264024</v>
+        <v>-0.06103205013323477</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1437745406909005</v>
+        <v>-0.147068029700329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3305360413862056</v>
+        <v>-0.3357764598562213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06549937404147256</v>
+        <v>-0.06653300336675026</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1032841988218647</v>
+        <v>-0.1012216492372566</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3150524618215162</v>
+        <v>-0.3093926499763587</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1634062609085637</v>
+        <v>0.1535387845940958</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1840075673242277</v>
+        <v>0.1740206646951286</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.06351210936030742</v>
+        <v>-0.05194128039102025</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.05362776984960357</v>
+        <v>0.05605473562074832</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.02863327154706473</v>
+        <v>-0.03588268136364123</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2102056656877935</v>
+        <v>-0.2120301677363465</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04054906483790872</v>
+        <v>0.04347374728904785</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.557253021336058e-05</v>
+        <v>0.0001529940403557946</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2040305195578432</v>
+        <v>-0.1980257839757542</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.614743913543954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-9.890667066501241</v>
+        <v>-9.890667066501235</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.093968695066945</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.350160086444647</v>
+        <v>5.093833746334421</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.118972963526396</v>
+        <v>-1.81532875281543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.89066713385102</v>
+        <v>-14.02219130193122</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.486410917437059</v>
+        <v>5.025789918504396</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.683545745402942</v>
+        <v>-1.596148275165483</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-18.32474237870067</v>
+        <v>-18.52635535889121</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.521918692183889</v>
+        <v>6.957785654418943</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1412117165389297</v>
+        <v>-0.2113432398763615</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-15.06841303202285</v>
+        <v>-14.58420664336636</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.13477261479343</v>
+        <v>14.18290687273863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.093551867338831</v>
+        <v>7.703216752994598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.197374264969944</v>
+        <v>-4.936362139184788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.34278374853933</v>
+        <v>13.11631900593913</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.705292867036035</v>
+        <v>7.041542868155294</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-10.2809969426316</v>
+        <v>-10.4528434226517</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.9535672380479</v>
+        <v>12.7805419917723</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.002635368198277</v>
+        <v>6.16748109939516</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-8.689303660555185</v>
+        <v>-8.256407275658178</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.05631648731325614</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2130256900054523</v>
+        <v>-0.2130256900054522</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1530218804644231</v>
@@ -983,7 +983,7 @@
         <v>0.05521256509608851</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2214815233332567</v>
+        <v>-0.2214815233332568</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1103514758813485</v>
+        <v>0.1071290903679346</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04564186937569784</v>
+        <v>-0.03646311598646705</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2901691757537045</v>
+        <v>-0.2890227108640459</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08920335069279799</v>
+        <v>0.07976297268395276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02733790295492837</v>
+        <v>-0.02619498759760313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2982209193279671</v>
+        <v>-0.2984031845304852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1176636606862479</v>
+        <v>0.1280633865106432</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.002573012229575405</v>
+        <v>-0.003816058870323188</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.276084826140144</v>
+        <v>-0.2687782496891529</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3174539013850108</v>
+        <v>0.3216757948250671</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1604620515827442</v>
+        <v>0.1740137214213755</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1167986060993572</v>
+        <v>-0.1091445868763757</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2345787237775017</v>
+        <v>0.2272544983865211</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.115878379156163</v>
+        <v>0.1248533385261631</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1784212220301953</v>
+        <v>-0.1807141371617587</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2502296741704234</v>
+        <v>0.249740563960023</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1160600787783163</v>
+        <v>0.1217074087701504</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.167734411381476</v>
+        <v>-0.1622393959301405</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>6.162448800915465</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-15.84843461089392</v>
+        <v>-15.84843461089391</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>14.19841312687191</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.922094795657291</v>
+        <v>10.30639163553794</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.02815095371579568</v>
+        <v>0.1468238090900775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.12258404778514</v>
+        <v>-13.36606693500932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.817465671876847</v>
+        <v>7.842643699234076</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.569111217200674</v>
+        <v>1.069328387066637</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-19.83260736693866</v>
+        <v>-19.76160577744897</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.99333890916514</v>
+        <v>10.87532480079275</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.506600844084602</v>
+        <v>1.978531898771119</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-15.11557327453188</v>
+        <v>-15.23016641924412</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.29998647827191</v>
+        <v>19.85868692723052</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.167265284019372</v>
+        <v>9.664017473768837</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.834422304904249</v>
+        <v>-5.249934905534487</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.93581489662903</v>
+        <v>16.70572113355765</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.66783681346723</v>
+        <v>10.79296664256897</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-11.49639081695539</v>
+        <v>-11.83166802720857</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.32531922664676</v>
+        <v>17.40007437138255</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.2002732287082</v>
+        <v>8.771816928760996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-9.129694296917968</v>
+        <v>-9.370715913891875</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1149874848054677</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2957219918386811</v>
+        <v>-0.295721991838681</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2994201267090861</v>
@@ -1197,7 +1197,7 @@
         <v>0.1169190123333667</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2570292974816757</v>
+        <v>-0.2570292974816756</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.225371337456279</v>
+        <v>0.2351719398074199</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.001702582419414882</v>
+        <v>0.004007569216914321</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3000708640006144</v>
+        <v>-0.3058803852135873</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1396193956478037</v>
+        <v>0.1414669398200978</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02825024901888015</v>
+        <v>0.01937995516375936</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3567504227930772</v>
+        <v>-0.3565204504407464</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2230990990147063</v>
+        <v>0.2213860654769812</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05151710128456655</v>
+        <v>0.04157657936676288</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3108874800771445</v>
+        <v>-0.3113104318226412</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4886511948490292</v>
+        <v>0.5026433850499513</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2331453374256721</v>
+        <v>0.2448769473168506</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1227551595653536</v>
+        <v>-0.1298630532129747</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3270187898023161</v>
+        <v>0.3267105551582832</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2069694760446641</v>
+        <v>0.2074206371540414</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2266709500793193</v>
+        <v>-0.2308073455005633</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3761548251091384</v>
+        <v>0.379178075120067</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2011453869276487</v>
+        <v>0.1914119034181909</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.196811936872167</v>
+        <v>-0.2031277101274188</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.340176783069631</v>
+        <v>2.79088660948635</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8896870915525807</v>
+        <v>0.5283589454295049</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.40746337619425</v>
+        <v>-18.51723218020348</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.865980584023229</v>
+        <v>-1.687124441662072</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.352801775076465</v>
+        <v>-8.517215679358781</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-35.48095868070475</v>
+        <v>-34.63730215882885</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.24515553817305</v>
+        <v>2.776519810193567</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6578286728014215</v>
+        <v>-0.7336439065238979</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-23.83171777654954</v>
+        <v>-24.08320145068237</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.14393047494402</v>
+        <v>15.38444294276423</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.26457200716036</v>
+        <v>14.00912445376583</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.574309211900118</v>
+        <v>-7.781786833521072</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.94724453915715</v>
+        <v>13.06953653216442</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.554844039958319</v>
+        <v>5.234896054169432</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-23.92046868840728</v>
+        <v>-23.48779763715495</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.70846785650195</v>
+        <v>12.52588482925311</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.479875367351829</v>
+        <v>8.817216671633057</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-16.16620703558123</v>
+        <v>-15.70722780863082</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.02344077673550976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.5191157462386896</v>
+        <v>-0.5191157462386895</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1684471154565682</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05410413218225835</v>
+        <v>0.06982062295826424</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0171245099040906</v>
+        <v>0.0133736264468365</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4390238848915567</v>
+        <v>-0.4414261012676143</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03143171655361413</v>
+        <v>-0.02831097789542983</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.136199446286564</v>
+        <v>-0.1409300592875204</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5786322983183266</v>
+        <v>-0.5714023098642789</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06734986366142073</v>
+        <v>0.05752752178067905</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01328805705533711</v>
+        <v>-0.01439216424978769</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4821405829186366</v>
+        <v>-0.4879409713033955</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4601975141996014</v>
+        <v>0.4373524787154007</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3759857156116754</v>
+        <v>0.4034482680560404</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2150289057840842</v>
+        <v>-0.2189222397442437</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.227627433661696</v>
+        <v>0.2496904955337747</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1056121018066068</v>
+        <v>0.09958137490704194</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4509464093752194</v>
+        <v>-0.4474189530744823</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2912581799748266</v>
+        <v>0.2876075513867435</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.194361616653001</v>
+        <v>0.2003638750087238</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3660128786342996</v>
+        <v>-0.3613754904521148</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.693653930581123</v>
+        <v>6.829596276031415</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.48876412139463</v>
+        <v>2.436848367879184</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.97165362412972</v>
+        <v>-13.88363630722734</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.858825404048661</v>
+        <v>4.706261153457026</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.508198926624859</v>
+        <v>-1.485988751323535</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-22.9582352430608</v>
+        <v>-22.94839437002129</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.587399547475503</v>
+        <v>6.542420641081091</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.176323927368384</v>
+        <v>1.294901772192284</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-17.81504397981871</v>
+        <v>-17.83031077402378</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.70778461348168</v>
+        <v>11.81062153454386</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.4180857600864</v>
+        <v>7.514608206624418</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-9.1616491355243</v>
+        <v>-9.163610252984475</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.375438737358879</v>
+        <v>9.497903566678442</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.107981492581925</v>
+        <v>3.098294932711255</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-18.44178668660325</v>
+        <v>-18.52402783138448</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.19146971481145</v>
+        <v>9.956544052471765</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.726526824052056</v>
+        <v>4.76564345653289</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-14.55416039684233</v>
+        <v>-14.37186213551656</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1485409329609457</v>
+        <v>0.1479780222174502</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.05467419279387026</v>
+        <v>0.05413830885952147</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3085598690134098</v>
+        <v>-0.3041784509151522</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.07872957286310385</v>
+        <v>0.07617257796655286</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02468402452682229</v>
+        <v>-0.02426324003493862</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3719056358810395</v>
+        <v>-0.3742279149179247</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1240532158538579</v>
+        <v>0.1223884482179458</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02179773717621412</v>
+        <v>0.02442871146505556</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3342094095900822</v>
+        <v>-0.333504649722114</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2705785745184694</v>
+        <v>0.2753305420016401</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1716598688224303</v>
+        <v>0.173852158695393</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2119645065286738</v>
+        <v>-0.2122081304653025</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1582103342875819</v>
+        <v>0.1605772045901837</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0522171702291635</v>
+        <v>0.05224107544253288</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3118706722084649</v>
+        <v>-0.3146928042211714</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1982673606082849</v>
+        <v>0.1930525356584829</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.091391176674264</v>
+        <v>0.09204028781399638</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2819007363637746</v>
+        <v>-0.2786338811231075</v>
       </c>
     </row>
     <row r="34">
